--- a/biology/Botanique/Dahlia_impérial/Dahlia_impérial.xlsx
+++ b/biology/Botanique/Dahlia_impérial/Dahlia_impérial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dahlia_imp%C3%A9rial</t>
+          <t>Dahlia_impérial</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dahlia impérial (Dahlia imperialis) est une espèce de plantes à fleurs de la famille des Asteraceae.
 C'est un dahlia arborescent (section pseudodendron) originaire d'Amérique (du Mexique, en passant par le Guatemala en Amérique centrale, jusqu'en Colombie,).
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dahlia_imp%C3%A9rial</t>
+          <t>Dahlia_impérial</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante des hauts plateaux et de montagnes d'Amérique centrale présente à des altitudes de 1,500-1,700 mètres
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dahlia_imp%C3%A9rial</t>
+          <t>Dahlia_impérial</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante ornementale utilisable en fond de massif ou en fleurs coupées. Les feuilles et tubercules (au goût d'artichaut ou de topinambour) sont utilisés comme complément alimentaire par certaines populations d'Amérique centrale.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dahlia_imp%C3%A9rial</t>
+          <t>Dahlia_impérial</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dahlia impérial est une plante herbacée vivace à gros tubercules comestibles.
 Elle a une croissance rapide depuis la base après une période de dormance hivernale. Son développement est fragile en raison de ses longues tiges creuses et de ses grandes feuilles opposées imparipennées à 7 folioles sensibles au vent, raison pour laquelle la plante est souvent tuteurée.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dahlia_imp%C3%A9rial</t>
+          <t>Dahlia_impérial</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On plante le rhizome dans un sol riche et bien drainé à au moins 10 cm de profondeur pour le protéger du froid (la plante ne supporte pas les températures négatives). Dans les régions froides, protéger le pied en hiver avec un paillage ou déterrer les tubercules pour les conserver à l'abri du froid et de la lumière (collet vers le bas) entre 5 et 10 °C.
 De préférence au plein soleil et à l'abri du vent même si la plante est tuteurée, le dahlia nécessite un arrosage régulier mais sans excès. On conseille de supprimer les fleurs fanées pour faciliter leur renouvellement.
